--- a/worth.xlsx
+++ b/worth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>WIN+R---&gt;msconfig---&gt;查看电脑启动项、任务管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome控制台create live expression，查看某个表达式实时的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git history deff：显示文件或者文件里某行代码的git日志（vscode中安装git history deff插件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,8 +79,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -79,6 +106,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1476229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="304800"/>
+          <a:ext cx="5076190" cy="1171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>237067</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1561935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="238125"/>
+          <a:ext cx="8466667" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,14 +457,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:XFD5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -386,16 +512,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -418,14 +559,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -433,10 +584,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
